--- a/save/save.xlsx
+++ b/save/save.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpp\PycharmProjects\untitled\814new\enhance\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839D44E-C7C0-49C4-9B98-90997E52E8BF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5380FB-3862-46E0-AD98-77B062642CCB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,6 +837,24 @@
     <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,24 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="5" xfId="10" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1516,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1689,7 +1689,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1699,35 +1699,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1751,22 +1751,22 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="15">
         <v>0.76378870010375899</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="15">
         <v>9.4031381203757303E-6</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="15">
         <v>5.0829057693481401</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="15">
         <v>6.2576554216555304E-5</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="15">
         <v>2.1851050853729199</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="15">
         <v>2.6901216164242399E-5</v>
       </c>
     </row>
@@ -1774,22 +1774,22 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="15">
         <v>0.72902870178222601</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="15">
         <v>8.9752016174698808E-6</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="15">
         <v>4.7301006317138601</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="15">
         <v>5.8233107608478297E-5</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="15">
         <v>2.3744761943817099</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="15">
         <v>2.92325974661345E-5</v>
       </c>
     </row>
@@ -1797,22 +1797,22 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="15">
         <v>0.72717046737670898</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="15">
         <v>8.9523245642053593E-6</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="15">
         <v>5.8809475898742596</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="15">
         <v>7.2401388576141695E-5</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="15">
         <v>2.3441188335418701</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="15">
         <v>2.8858862613932101E-5</v>
       </c>
     </row>
@@ -1820,61 +1820,61 @@
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="15">
         <f>AVERAGE(B4:B6)</f>
         <v>0.73999595642089799</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="15">
         <f>AVERAGE(C4:C6)</f>
         <v>9.110221434016989E-6</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="15">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D4:D6)</f>
         <v>5.2313179969787535</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>6.4403683467058434E-5</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>2.3012333710988333</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>2.8330892081436331E-5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1898,22 +1898,22 @@
       <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="15">
         <v>1.2421517372131301</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="15">
         <v>1.5292350292552101E-5</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="15">
         <v>7.4138879776000897</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="15">
         <v>9.1273689507184697E-5</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="15">
         <v>1.8994069099426201</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="15">
         <v>2.3383935267123299E-5</v>
       </c>
     </row>
@@ -1921,22 +1921,22 @@
       <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="15">
         <v>1.24252104759216</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="15">
         <v>1.52968969381137E-5</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="15">
         <v>7.41414093971252</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="15">
         <v>9.1276803768605504E-5</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="15">
         <v>1.8996953964233301</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="15">
         <v>2.3387486875341199E-5</v>
       </c>
     </row>
@@ -1944,22 +1944,22 @@
       <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="15">
         <v>1.2425787448882999</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="15">
         <v>1.5297607259757198E-5</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="15">
         <v>7.4141912460327104</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="15">
         <v>9.1277423098633603E-5</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="15">
         <v>1.8997955322265601</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="15">
         <v>2.33887196649705E-5</v>
       </c>
     </row>
@@ -1967,43 +1967,43 @@
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="15">
         <f>AVERAGE(B12:B14)</f>
         <v>1.24241717656453</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="15">
         <f>AVERAGE(C12:C14)</f>
         <v>1.5295618163474332E-5</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="15">
         <f t="shared" ref="D15:G15" si="1">AVERAGE(D12:D14)</f>
         <v>7.4140733877817731</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="15">
         <f t="shared" si="1"/>
         <v>9.1275972124807935E-5</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="15">
         <f t="shared" si="1"/>
         <v>1.8996326128641698</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="15">
         <f t="shared" si="1"/>
         <v>2.338671393581167E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F23"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2031,35 +2031,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
@@ -2080,104 +2080,104 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="15">
         <v>3.11111092567443</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="15">
         <v>3.83014382615932E-5</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="15">
         <v>4.45387482643127</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="15">
         <v>5.4832442739868197E-5</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="15">
         <v>1.18624520301818</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="15">
         <v>1.46040750368496E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="15">
         <v>3.3041536808013898</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="15">
         <v>4.0678021849894601E-5</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="15">
         <v>4.3627543449401802</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="15">
         <v>5.3710642334940099E-5</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="15">
         <v>1.1496605873107899</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="15">
         <v>1.4153675345769099E-5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="15">
         <v>3.13637924194335</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="15">
         <v>3.8612520983704402E-5</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="15">
         <v>4.4467439651489196</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="15">
         <v>5.4744653442191899E-5</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="15">
         <v>1.15500831604003</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="15">
         <v>1.42195121824028E-5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
@@ -2267,37 +2267,37 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="21"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="13" t="s">
         <v>10</v>
       </c>
@@ -2323,22 +2323,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B20" s="3">
-        <v>4.4374446868896396</v>
+        <v>6.2378571033477703</v>
       </c>
       <c r="C20" s="3">
-        <v>5.46301683786136E-5</v>
+        <v>5.1552538044196501E-5</v>
       </c>
       <c r="D20" s="3">
-        <v>6.5394444465637198</v>
+        <v>6.8671808242797798</v>
       </c>
       <c r="E20" s="8">
-        <v>5.3835437648193499E-5</v>
+        <v>5.6167744878046999E-5</v>
       </c>
       <c r="F20" s="3">
-        <v>12.8861525058746</v>
+        <v>2.0186061859130802</v>
       </c>
       <c r="G20" s="8">
-        <v>1.05435799193855E-4</v>
+        <v>1.68217182159423E-5</v>
       </c>
       <c r="J20" s="7"/>
     </row>
@@ -2347,22 +2347,22 @@
         <v>1.2</v>
       </c>
       <c r="B21" s="3">
-        <v>4.4374258518218896</v>
+        <v>6.2461533546447701</v>
       </c>
       <c r="C21" s="3">
-        <v>5.4629936496754698E-5</v>
+        <v>5.16211021045022E-5</v>
       </c>
       <c r="D21" s="3">
-        <v>6.5738322734832701</v>
+        <v>6.8455817699432302</v>
       </c>
       <c r="E21" s="8">
-        <v>5.3791279547363299E-5</v>
+        <v>5.6379823338548601E-5</v>
       </c>
       <c r="F21" s="3">
-        <v>12.886344194412199</v>
+        <v>2.1224684715270898</v>
       </c>
       <c r="G21" s="8">
-        <v>1.06091007240046E-4</v>
+        <v>1.7687237262725798E-5</v>
       </c>
       <c r="J21" s="7"/>
     </row>
@@ -2370,7 +2370,7 @@
       <c r="A22" s="12">
         <v>2.1</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="14">
         <v>4.0269010066986004</v>
       </c>
       <c r="C22" s="3">
@@ -2436,21 +2436,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2474,35 +2474,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="A6" s="12">
         <v>2.1</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="14">
         <v>4.0269010066986004</v>
       </c>
       <c r="C6" s="3">
